--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3804485.924411071</v>
+        <v>3822860.613877191</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>682213.8818051495</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.38569317777924</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>348.1634516111782</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.7978702804878</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>139.2886326231155</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>355.3953510421093</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>104.3004803731276</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.5968436493439</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,10 +1145,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>136.1909643039434</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1184,16 +1184,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>155.570054236288</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>155.886038567534</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.35002255071629</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505273982</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>62.488858601107</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,13 +1588,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>115.0901731175173</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896925</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>143.5781564229881</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>36.69709007412187</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>59.77945773664936</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.2474179999137</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>66.90445977359174</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>33.35146980185858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>15.88023140885721</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>101.2898147863548</v>
+        <v>132.4580389349897</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,19 +3004,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378959</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415164</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337373</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539622</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689367</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3506,13 +3506,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692886</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789515</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789586</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>102.6104623981304</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>118.2422920270587</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150.78176403888</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C2" t="n">
-        <v>1150.78176403888</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1150.78176403888</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>1150.78176403888</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1540.921096014692</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1150.78176403888</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6765899837193</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="C4" t="n">
-        <v>562.6765899837193</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="D4" t="n">
-        <v>562.6765899837193</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="E4" t="n">
-        <v>562.6765899837193</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2068.619613065019</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2527.036583363647</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>2527.036583363647</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>2237.619413326686</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>2237.619413326686</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>990.5839652830421</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>990.5839652830421</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762915</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2591.795070439306</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X5" t="n">
-        <v>1739.708500331692</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>1349.56916835588</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4653,7 +4653,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4744,22 +4744,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W7" t="n">
         <v>281.9325327183818</v>
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1141.749745823171</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="C8" t="n">
-        <v>1141.749745823171</v>
+        <v>1703.566937845283</v>
       </c>
       <c r="D8" t="n">
-        <v>1141.749745823171</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>755.9614932249262</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>344.9755884353187</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="X8" t="n">
-        <v>1528.349585887292</v>
+        <v>2090.166777909405</v>
       </c>
       <c r="Y8" t="n">
-        <v>1528.349585887292</v>
+        <v>2090.166777909405</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,13 +4884,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>705.5532038521756</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380756</v>
+        <v>450.8687156462887</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380756</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.4036268380756</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080546</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822453</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5054,37 +5054,37 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>474.7746905116418</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>721.5398184181058</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1028.859951698067</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1833.271529962218</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>676.0189678006951</v>
+        <v>973.0255547109412</v>
       </c>
       <c r="C13" t="n">
-        <v>507.0827848727882</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727882</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
         <v>359.1696912903951</v>
@@ -5194,7 +5194,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1124.801097842243</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1124.801097842243</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1124.801097842243</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1124.801097842243</v>
+        <v>1382.663570439198</v>
       </c>
       <c r="X13" t="n">
-        <v>896.8115469442253</v>
+        <v>1154.674019541181</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.0189678006951</v>
+        <v>1154.674019541181</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M15" t="n">
-        <v>1689.561836756086</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N15" t="n">
-        <v>2019.424464420119</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
-        <v>2298.964529638816</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>434.3285960683721</v>
+        <v>990.7828679390639</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>821.846685011157</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>1064.759190940159</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W16" t="n">
-        <v>1064.759190940159</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X16" t="n">
-        <v>836.769640042142</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y16" t="n">
-        <v>615.9770608986119</v>
+        <v>1172.431332769303</v>
       </c>
     </row>
     <row r="17">
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2786.879505108312</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3177.427413012051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556163</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.69918977486</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>157.600382103366</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>675.007103038344</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>385.5899330013834</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="X19" t="n">
-        <v>157.600382103366</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="Y19" t="n">
-        <v>157.600382103366</v>
+        <v>972.2646934632137</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5744,19 +5744,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>1088.787142923176</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1396.107276203138</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N21" t="n">
-        <v>1725.969903867171</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O21" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>675.007103038344</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>385.5899330013834</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
         <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,40 +6054,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>846.9127704725952</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1651.324348736746</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O24" t="n">
-        <v>2320.788110039405</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>130.9054447954965</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>130.9054447954965</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X25" t="n">
-        <v>130.9054447954965</v>
+        <v>727.1135926675564</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9054447954965</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6203,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6221,52 +6221,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,34 +6291,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>841.8631140141288</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N27" t="n">
-        <v>1646.274692278279</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
-        <v>2315.738453580939</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
         <v>2536.440602918915</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>199.530035688927</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="C28" t="n">
-        <v>199.530035688927</v>
+        <v>790.995423209356</v>
       </c>
       <c r="D28" t="n">
-        <v>199.530035688927</v>
+        <v>640.8787837970202</v>
       </c>
       <c r="E28" t="n">
-        <v>199.530035688927</v>
+        <v>492.9656902146271</v>
       </c>
       <c r="F28" t="n">
-        <v>199.530035688927</v>
+        <v>492.9656902146271</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6412,22 +6412,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>675.007103038344</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>420.3226148324571</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>420.3226148324571</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X28" t="n">
-        <v>420.3226148324571</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y28" t="n">
-        <v>199.530035688927</v>
+        <v>959.9316061372629</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6437,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,19 +6452,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,7 +6537,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
@@ -6549,19 +6549,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>841.863114014129</v>
+        <v>857.5427825698952</v>
       </c>
       <c r="N30" t="n">
-        <v>1646.27469227828</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O30" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6625,7 +6625,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6689,46 +6689,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,34 +6765,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>709.4934589365143</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M33" t="n">
-        <v>1016.813592216476</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N33" t="n">
-        <v>1346.676219880509</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103133</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6883,13 +6883,13 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859417</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
@@ -6929,52 +6929,52 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>218.4033802145346</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>367.4730644165944</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>614.2381923230585</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>921.55832560302</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.969903867171</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O36" t="n">
-        <v>2005.509969085868</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7090,7 +7090,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,7 +7120,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7129,16 +7129,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
         <v>904.3190116155888</v>
@@ -7166,58 +7166,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>218.4033802145346</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>367.4730644165944</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>614.2381923230585</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>921.55832560302</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>1725.969903867171</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7366,16 +7366,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,22 +7485,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011336</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N42" t="n">
-        <v>1296.555866665166</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7634,10 +7634,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,25 +7646,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7673,10 +7673,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.357857465301</v>
@@ -7691,7 +7691,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>675.007103038344</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>675.007103038344</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="W46" t="n">
-        <v>385.5899330013834</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="X46" t="n">
-        <v>266.1532743881928</v>
+        <v>1284.194235404445</v>
       </c>
       <c r="Y46" t="n">
-        <v>266.1532743881928</v>
+        <v>1063.401656260915</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,10 +8301,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8532,13 +8532,13 @@
         <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.286579409329</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8702,7 +8702,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8766,19 +8766,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>62.79465928983205</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8939,7 +8939,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>22.04402060665578</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>145.2351313103784</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9480,28 +9480,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>295.3773510571276</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9720,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>5.100663089360012</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,25 +9957,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>15.83804904622903</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10197,22 +10197,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>15.83804904622843</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>80.50021372615248</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928318</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10431,10 +10431,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>176.7176547498455</v>
+        <v>29.47535963978208</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>80.50021372615264</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720748</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>80.50021372615264</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>124.3400780863228</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>349.7653003338567</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>223.674264993448</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>91.23759968302147</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>159.0587024572823</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,13 +23476,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>171.4328252190737</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>108.5594869008399</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>181.8875632779729</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>107.4673633619785</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>17.27558033667731</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24172,25 +24172,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>158.8051956154454</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>133.8953512967693</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>202.7044219432376</v>
       </c>
     </row>
     <row r="26">
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>65.2037536770228</v>
+        <v>34.03552952838788</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -26020,25 +26020,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26071,25 +26071,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>149.5271809256976</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>107.4673633619785</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685349.1677531534</v>
+        <v>685349.1677531535</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.2135016468</v>
+      </c>
+      <c r="F2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.213501647</v>
-      </c>
       <c r="G2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="H2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="H2" t="n">
-        <v>742955.2135016472</v>
-      </c>
       <c r="I2" t="n">
-        <v>742955.2135016475</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
+        <v>779989.6813710696</v>
+      </c>
+      <c r="L2" t="n">
+        <v>779989.6813710694</v>
+      </c>
+      <c r="M2" t="n">
+        <v>779989.6813710699</v>
+      </c>
+      <c r="N2" t="n">
         <v>779989.6813710695</v>
       </c>
-      <c r="L2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710696</v>
-      </c>
       <c r="O2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016466</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371265</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="C4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>177019.0984852685</v>
+        <v>174490.7773218261</v>
       </c>
       <c r="E4" t="n">
-        <v>31338.36479029923</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230228</v>
       </c>
       <c r="G4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
-        <v>31338.36479029921</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
-        <v>31338.36479029927</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>53757.15203161971</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="L4" t="n">
-        <v>53757.15203161969</v>
+        <v>51722.3327936228</v>
       </c>
       <c r="M4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362281</v>
       </c>
       <c r="N4" t="n">
-        <v>53757.1520316197</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="O4" t="n">
-        <v>53757.15203161971</v>
+        <v>51722.33279362279</v>
       </c>
       <c r="P4" t="n">
-        <v>31338.36479029922</v>
+        <v>29303.54555230232</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-69856.37439215323</v>
+        <v>-67328.05322871124</v>
       </c>
       <c r="C6" t="n">
-        <v>520111.5048223907</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="D6" t="n">
-        <v>520111.5048223909</v>
+        <v>522639.8259858332</v>
       </c>
       <c r="E6" t="n">
-        <v>94469.4862857351</v>
+        <v>96504.30552373166</v>
       </c>
       <c r="F6" t="n">
-        <v>619629.5227626312</v>
+        <v>621664.3420006282</v>
       </c>
       <c r="G6" t="n">
-        <v>619629.5227626313</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="H6" t="n">
-        <v>619629.5227626314</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="I6" t="n">
-        <v>619629.5227626318</v>
+        <v>621664.3420006281</v>
       </c>
       <c r="J6" t="n">
-        <v>443206.3035700386</v>
+        <v>445241.1228080352</v>
       </c>
       <c r="K6" t="n">
-        <v>574011.9114157117</v>
+        <v>576046.7306537089</v>
       </c>
       <c r="L6" t="n">
-        <v>628517.4235194246</v>
+        <v>630552.2427574212</v>
       </c>
       <c r="M6" t="n">
-        <v>493716.4082855871</v>
+        <v>495751.2275235846</v>
       </c>
       <c r="N6" t="n">
-        <v>628517.4235194245</v>
+        <v>630552.2427574213</v>
       </c>
       <c r="O6" t="n">
-        <v>628517.4235194245</v>
+        <v>630552.2427574212</v>
       </c>
       <c r="P6" t="n">
-        <v>619629.5227626315</v>
+        <v>621664.3420006278</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,7 +26932,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>328.3481484857014</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.7125941305332</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.03410990144954</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27552,10 +27552,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>146.9932416188622</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27.33849062137125</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>70.11523243584392</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.68503059263386</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>160.1931355603112</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.5932057168516</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>193.670914481125</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.9459416144033</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>6.772727404198005</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,19 +28062,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,10 +35021,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245897</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856228</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35410,19 +35410,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
         <v>570.6060255109123</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>213.3700978777713</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
         <v>570.6060255109123</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P15" t="n">
-        <v>229.1374355381804</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>394.4928362664027</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>544.6350560131518</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>315.5250401398262</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>334.8610358541607</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>222.9314639777537</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36850,10 +36850,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879392</v>
@@ -36917,22 +36917,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>326.2624260966948</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
-        <v>362.8639159672606</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>425.9753597058698</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37324,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>122.4103926810593</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>513.2182750716</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>122.4103926810593</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>434.7644551367891</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,16 +37780,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>599.023005289881</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>506.0379672345562</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
@@ -37880,7 +37880,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>401.6619767334877</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38187,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3822860.613877191</v>
+        <v>3897959.399289321</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051495</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7775574.81592529</v>
+        <v>7674126.790167706</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54.38569317777924</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>199.8692462101356</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -829,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>25.30122190860853</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>139.2886326231155</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>86.81904773695692</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>104.3004803731276</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>126.3298627762798</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>168.5659324348788</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,25 +1183,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>155.570054236288</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>127.004412707233</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.35002255071629</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273982</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>115.0901731175173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896925</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274057</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014435</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1780,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1825,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.69709007412187</v>
+        <v>174.306260043179</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527406</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014435</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>221.033598721557</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>269.2474179999137</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2242,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.5107205555144</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>97.12772045570708</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.88023140885721</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,16 +2718,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>132.4580389349897</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0.3008121192693011</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329028</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>164.3675597136118</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415164</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539622</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>96.45266989055078</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789515</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>98.00807076326775</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274073</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385025</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463099</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>44.76059872677018</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>78.3122789930156</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4192,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>102.6104623981304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="X2" t="n">
-        <v>1309.714918859356</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835438</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,10 +4421,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2237.619413326686</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="C4" t="n">
-        <v>2237.619413326686</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="D4" t="n">
-        <v>2237.619413326686</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="E4" t="n">
-        <v>2237.619413326686</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="F4" t="n">
-        <v>2237.619413326686</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>79.49977162703973</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>2527.036583363647</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>2527.036583363647</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W4" t="n">
-        <v>2237.619413326686</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="X4" t="n">
-        <v>2237.619413326686</v>
+        <v>261.1482364572794</v>
       </c>
       <c r="Y4" t="n">
-        <v>2237.619413326686</v>
+        <v>261.1482364572794</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1187.828354776384</v>
+        <v>1275.524362591491</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>906.5618456510797</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>548.2961470443292</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>162.507894446085</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>155.5623936968815</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>141.6389896354725</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>141.6389896354725</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2591.795070439306</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2591.795070439306</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2338.033285077397</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2338.033285077397</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>2338.033285077397</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1964.567526816317</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>1574.428194840505</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4646,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1703.566937845283</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.166777909405</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2090.166777909405</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>2090.166777909405</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4883,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="D10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>705.5532038521756</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>705.5532038521756</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>705.5532038521756</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>705.5532038521756</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U10" t="n">
-        <v>705.5532038521756</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="V10" t="n">
-        <v>450.8687156462887</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>182.2302673832261</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>182.2302673832261</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5020,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080546</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822453</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
@@ -5066,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,19 +5129,19 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>973.0255547109412</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C13" t="n">
-        <v>804.0893717830343</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D13" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5230,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>1382.663570439198</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>1154.674019541181</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>1154.674019541181</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643328</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899131</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207834</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5340,40 +5342,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126484</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571614</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775516</v>
+        <v>1288.325632214051</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1595.645765494013</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1925.508393158046</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2331.418122136704</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>990.7828679390639</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>821.846685011157</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.169691290395</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799371</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="W16" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.431332769303</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
     <row r="17">
@@ -5495,46 +5497,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619131</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643328</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899131</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207834</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5577,37 +5579,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126484</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571614</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>921.193690363626</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643588</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307622</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526319</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>822.1480540508779</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688076</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799371</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471203</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.84116711973</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035282</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247883</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>740.8694804898822</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="W19" t="n">
-        <v>972.2646934632137</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X19" t="n">
-        <v>972.2646934632137</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y19" t="n">
-        <v>972.2646934632137</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N21" t="n">
-        <v>1999.905696641086</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1089.766491149919</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>835.082002944032</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>545.6648329070714</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>545.6648329070714</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6072,22 +6074,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>735.0407559057232</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1999.905696641086</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.072954880832</v>
+        <v>195.3259000014041</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>195.3259000014041</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="W25" t="n">
-        <v>955.1031435655738</v>
+        <v>644.1080300429516</v>
       </c>
       <c r="X25" t="n">
-        <v>727.1135926675564</v>
+        <v>416.1184791449342</v>
       </c>
       <c r="Y25" t="n">
-        <v>711.072954880832</v>
+        <v>195.3259000014041</v>
       </c>
     </row>
     <row r="26">
@@ -6209,28 +6211,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6239,10 +6241,10 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>959.9316061372629</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C28" t="n">
-        <v>790.995423209356</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>640.8787837970202</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>492.9656902146271</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>492.9656902146271</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
         <v>359.1696912903951</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.612419932378</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1274.827004721884</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>985.6983659354419</v>
       </c>
       <c r="V28" t="n">
-        <v>1187.92115703528</v>
+        <v>985.6983659354419</v>
       </c>
       <c r="W28" t="n">
-        <v>1187.92115703528</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="X28" t="n">
-        <v>959.9316061372629</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="Y28" t="n">
-        <v>959.9316061372629</v>
+        <v>696.2811958984813</v>
       </c>
     </row>
     <row r="29">
@@ -6461,13 +6463,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,19 +6542,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O30" t="n">
         <v>2331.418122136705</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504513</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>789.0753054710162</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6689,16 +6691,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6722,7 +6724,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504514</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210313</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6935,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N36" t="n">
-        <v>1736.599915964471</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183168</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108326</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1112.360692488076</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010312</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="38">
@@ -7157,28 +7159,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>3928.626224708975</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>4571.72593422785</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>4317.041446021964</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>4027.624275985003</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>3928.626224708975</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>3928.626224708975</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7393,13 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
@@ -7409,25 +7411,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7439,7 +7441,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1453.703544571266</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1253.783534486818</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1029.998119276324</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>740.8694804898822</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>486.1849922839954</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,28 +7633,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514078</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7691,7 +7693,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.753191430675</v>
+        <v>345.2565865023499</v>
       </c>
       <c r="C46" t="n">
-        <v>712.8170085027681</v>
+        <v>176.320403574443</v>
       </c>
       <c r="D46" t="n">
-        <v>562.7003690904323</v>
+        <v>176.320403574443</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904323</v>
+        <v>176.320403574443</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>176.320403574443</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V46" t="n">
-        <v>1284.194235404445</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.194235404445</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.194235404445</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y46" t="n">
-        <v>1063.401656260915</v>
+        <v>526.9050513325897</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8538,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297713</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9005,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978208</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>127.6461250100612</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445201</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987297713</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208025</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>73.53204524670085</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,22 +10190,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>19.14409596997086</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10212,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10668,25 +10670,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.6717966208069</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10905,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>124.3400780863228</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>349.7653003338567</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>87.16935584025367</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>171.4328252190737</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23713,13 +23715,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.8875632779729</v>
+        <v>44.27839330891575</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>65.20375367702036</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>17.27558033667731</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709136</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>102.726631843063</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>51.48775256250528</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>202.7044219432376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,16 +24606,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>34.03552952838788</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.619997864334</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>33.55325026999142</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>155.6849734332772</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>127.7015846257694</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>65.20375367702263</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>88.18128947036199</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26080,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>149.5271809256976</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>685349.1677531535</v>
+        <v>654162.247442061</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420606</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.681371069</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="E2" t="n">
         <v>742955.2135016468</v>
       </c>
       <c r="F2" t="n">
+        <v>742955.2135016466</v>
+      </c>
+      <c r="G2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="H2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="I2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="J2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="K2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>742955.2135016471</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
+        <v>742955.2135016469</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="I2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="J2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="K2" t="n">
-        <v>779989.6813710696</v>
-      </c>
-      <c r="L2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="M2" t="n">
-        <v>779989.6813710699</v>
-      </c>
-      <c r="N2" t="n">
-        <v>779989.6813710695</v>
-      </c>
-      <c r="O2" t="n">
-        <v>779989.6813710694</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016466</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26375,7 +26377,7 @@
         <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>8.986319244286277e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371251</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26423,43 @@
         <v>174490.7773218262</v>
       </c>
       <c r="D4" t="n">
-        <v>174490.7773218261</v>
+        <v>174490.7773218262</v>
       </c>
       <c r="E4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230228</v>
+        <v>29303.54555230227</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230227</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230233</v>
+        <v>29303.54555230232</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
       </c>
       <c r="K4" t="n">
-        <v>51722.33279362279</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="L4" t="n">
-        <v>51722.3327936228</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="M4" t="n">
-        <v>51722.33279362281</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="N4" t="n">
-        <v>51722.33279362279</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>51722.33279362279</v>
+        <v>29303.54555230234</v>
       </c>
       <c r="P4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26481,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="L5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871124</v>
+        <v>-67328.05322871104</v>
       </c>
       <c r="C6" t="n">
-        <v>522639.8259858333</v>
+        <v>522639.8259858332</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858332</v>
+        <v>522639.8259858335</v>
       </c>
       <c r="E6" t="n">
         <v>96504.30552373166</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006282</v>
+        <v>621664.3420006268</v>
       </c>
       <c r="G6" t="n">
+        <v>621664.3420006281</v>
+      </c>
+      <c r="H6" t="n">
+        <v>621664.3420006288</v>
+      </c>
+      <c r="I6" t="n">
         <v>621664.3420006284</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>445241.1228080355</v>
+      </c>
+      <c r="K6" t="n">
         <v>621664.3420006281</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
         <v>621664.3420006281</v>
       </c>
-      <c r="J6" t="n">
-        <v>445241.1228080352</v>
-      </c>
-      <c r="K6" t="n">
-        <v>576046.7306537089</v>
-      </c>
-      <c r="L6" t="n">
-        <v>630552.2427574212</v>
-      </c>
       <c r="M6" t="n">
-        <v>495751.2275235846</v>
+        <v>486863.3267667912</v>
       </c>
       <c r="N6" t="n">
-        <v>630552.2427574213</v>
+        <v>621664.3420006284</v>
       </c>
       <c r="O6" t="n">
-        <v>630552.2427574212</v>
+        <v>621664.3420006279</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006278</v>
+        <v>621664.3420006281</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26747,10 +26749,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541014</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541014</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26759,22 +26761,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26932,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,7 +26971,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328.3481484857014</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27433,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>149.3717225072774</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27549,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>19.89873727992847</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27593,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>146.9932416188622</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>65.11226850790433</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>70.11523243584392</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27828,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>160.1931355603112</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>213.364437637383</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>193.670914481125</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>21.61106031097935</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28053,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.772727404198005</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28062,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443621</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.1875530044495</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961208</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041494</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927195</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540894</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946999</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647501</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.0697047810466</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354896</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354105</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127073</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215736</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622986</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.812084735899</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724852</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813469</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855532</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458554</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677469</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361499</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081166</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298636</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196127</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065635</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469075</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.3290389733768</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336904</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892255</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443621</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.1875530044495</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176653</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961208</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041494</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304447</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565527</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927195</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540894</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946999</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647501</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.0697047810466</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354896</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354105</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127073</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215736</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622986</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.812084735899</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724852</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813469</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855532</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458554</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095119</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677469</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361499</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081166</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298636</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196127</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065635</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469075</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.3290389733768</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336904</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892255</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351826</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,10 +35260,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35495,22 +35497,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>660.1896773843231</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415083</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303335</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081127</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.606025510913</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502053</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349307</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953157</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005182</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958064</v>
+        <v>620.098050259484</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504669</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980135</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>410.00982725117</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315252</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507444</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299108</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056039</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.383600611801</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187493</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415083</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303335</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109079</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081127</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095148</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.606025510913</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502053</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349307</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953157</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005182</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560248</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504669</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980135</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411088</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523276</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686881</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556569</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299108</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056039</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.383600611801</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187493</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>451.7807101798181</v>
       </c>
       <c r="M24" t="n">
         <v>776.1294408004662</v>
@@ -36449,16 +36451,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>224.1074838346401</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>301.507798211079</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37324,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>526.9295015768312</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>513.2182750716</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>434.7644551367891</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>642.8663885318339</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>599.023005289881</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>420.3639292382666</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3897959.399289321</v>
+        <v>3890942.384397609</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7674126.790167706</v>
+        <v>7674126.790167707</v>
       </c>
     </row>
     <row r="11">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>228.4864079129601</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>199.8692462101356</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>25.30122190860853</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>47.50320101340306</v>
       </c>
       <c r="I5" t="n">
-        <v>86.81904773695692</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1062,13 +1062,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.7268375758684</v>
+        <v>160.9608410339006</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>168.5659324348788</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>60.46179076613048</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>127.004412707233</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>14.52687838733143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274057</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014435</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642719</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
-        <v>174.306260043179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527406</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051987</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1940,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262918</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014435</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T18" t="n">
         <v>192.9654699154601</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>221.033598721557</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
-        <v>183.5107205555144</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>97.12772045570708</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>60.54139430664235</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2715,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0.3008121192693011</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>164.3675597136118</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.3808996750722</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>115.5269768002176</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>92.39041249234444</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>96.45266989055078</v>
+        <v>57.5645290049876</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>98.00807076326775</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274073</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385025</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>29.64881963848354</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.76059872677018</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -3957,16 +3957,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>54.77951516590833</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>78.3122789930156</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W2" t="n">
-        <v>2045.420119349963</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X2" t="n">
-        <v>2045.420119349963</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y2" t="n">
-        <v>1655.280787374151</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.49977162703973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>79.49977162703973</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>79.49977162703973</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E4" t="n">
-        <v>79.49977162703973</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F4" t="n">
-        <v>79.49977162703973</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G4" t="n">
-        <v>79.49977162703973</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H4" t="n">
-        <v>79.49977162703973</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>79.49977162703973</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>261.1482364572794</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1275.524362591491</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="C5" t="n">
-        <v>906.5618456510797</v>
+        <v>1270.889273203046</v>
       </c>
       <c r="D5" t="n">
-        <v>548.2961470443292</v>
+        <v>912.6235745962952</v>
       </c>
       <c r="E5" t="n">
-        <v>162.507894446085</v>
+        <v>526.8353219980509</v>
       </c>
       <c r="F5" t="n">
-        <v>155.5623936968815</v>
+        <v>115.8494172084433</v>
       </c>
       <c r="G5" t="n">
-        <v>141.6389896354725</v>
+        <v>101.9260131470342</v>
       </c>
       <c r="H5" t="n">
-        <v>141.6389896354725</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186807</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W5" t="n">
-        <v>2035.589960916693</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.124202655613</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.124202655613</v>
+        <v>1639.851790143457</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4710,22 +4710,22 @@
         <v>409.0761618661916</v>
       </c>
       <c r="E7" t="n">
-        <v>261.1630682837985</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="F7" t="n">
-        <v>114.2731207858881</v>
+        <v>262.1862143682812</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1160.852583904132</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>1160.852583904132</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5868852973811</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>74.81188663097701</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2311.057514205145</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1937.591755944065</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1547.452423968253</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>182.2302673832261</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286581</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="U10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="V10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="W10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="X10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.2302673832261</v>
+        <v>713.4553696737762</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5044,16 +5044,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,28 +5120,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5269,46 +5269,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899131</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207834</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5342,43 +5342,43 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126484</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571614</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.325632214051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136704</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918914</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.169691290395</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799371</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471203</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557905</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557905</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557905</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557905</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557905</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557905</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643328</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899131</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207834</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5579,37 +5579,37 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047444</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126484</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571614</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>921.193690363626</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643588</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307622</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526319</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5673,52 +5673,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688076</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799371</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471203</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557905</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.84116711973</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035282</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247883</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>740.8694804898822</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>486.1849922839954</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>486.1849922839954</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>486.1849922839954</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5831,28 +5831,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>1089.766491149919</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>835.082002944032</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>545.6648329070714</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>545.6648329070714</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>545.6648329070714</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>735.0407559057232</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M24" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>195.3259000014041</v>
+        <v>420.322614832458</v>
       </c>
       <c r="C25" t="n">
-        <v>195.3259000014041</v>
+        <v>420.322614832458</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.322614832458</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.322614832458</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>420.322614832458</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U25" t="n">
-        <v>898.7925182488384</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V25" t="n">
-        <v>644.1080300429516</v>
+        <v>420.322614832458</v>
       </c>
       <c r="W25" t="n">
-        <v>644.1080300429516</v>
+        <v>420.322614832458</v>
       </c>
       <c r="X25" t="n">
-        <v>416.1184791449342</v>
+        <v>420.322614832458</v>
       </c>
       <c r="Y25" t="n">
-        <v>195.3259000014041</v>
+        <v>420.322614832458</v>
       </c>
     </row>
     <row r="26">
@@ -6208,43 +6208,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6308,25 +6308,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.612419932378</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T28" t="n">
-        <v>1274.827004721884</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>985.6983659354419</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>985.6983659354419</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>696.2811958984813</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>696.2811958984813</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,7 +6454,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6463,7 +6463,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6551,19 +6551,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1332.888432463345</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1332.888432463345</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U31" t="n">
-        <v>1043.759793676903</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V31" t="n">
-        <v>789.0753054710162</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W31" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6688,25 +6688,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>213.9110074201016</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C34" t="n">
-        <v>213.9110074201016</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D34" t="n">
-        <v>213.9110074201016</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E34" t="n">
-        <v>213.9110074201016</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>986.0022165609664</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>731.3177283550796</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>441.900558318119</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>213.9110074201016</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="Y34" t="n">
-        <v>213.9110074201016</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="35">
@@ -6937,25 +6937,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1196.088769018224</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V37" t="n">
-        <v>1112.360692488076</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W37" t="n">
-        <v>822.9435224511154</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X37" t="n">
-        <v>594.9539715530981</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y37" t="n">
-        <v>594.9539715530981</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="38">
@@ -7153,22 +7153,22 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7177,7 +7177,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3928.626224708975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3759.690041781068</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4571.72593422785</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4317.041446021964</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4027.624275985003</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>3928.626224708975</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>3928.626224708975</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7441,22 +7441,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>238.6999855034732</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>238.6999855034732</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1453.703544571266</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1253.783534486818</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1029.998119276324</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>740.8694804898822</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>486.1849922839954</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W43" t="n">
-        <v>486.1849922839954</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404652</v>
+        <v>385.5899330013836</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822458</v>
@@ -7648,10 +7648,10 @@
         <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,13 +7736,13 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1427.741252113634</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>345.2565865023499</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="C46" t="n">
-        <v>176.320403574443</v>
+        <v>729.5678040704124</v>
       </c>
       <c r="D46" t="n">
-        <v>176.320403574443</v>
+        <v>729.5678040704124</v>
       </c>
       <c r="E46" t="n">
-        <v>176.320403574443</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F46" t="n">
-        <v>176.320403574443</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W46" t="n">
-        <v>754.894602230607</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="X46" t="n">
-        <v>526.9050513325897</v>
+        <v>898.5039869983193</v>
       </c>
       <c r="Y46" t="n">
-        <v>526.9050513325897</v>
+        <v>898.5039869983193</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8075,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>349.7653003338568</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987297713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>127.6461250100612</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445201</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987297713</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208025</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>202.5230052237938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>19.14409596997086</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>277.6717966208069</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11384,22 +11384,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>87.16935584025367</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>30.12558851170024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,13 +23466,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.27839330891575</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>65.20375367702036</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24180,10 +24180,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
-        <v>102.726631843063</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>51.48775256250528</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>105.9521741567352</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.619997864334</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>33.55325026999142</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.1420986615188</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>29.89407122271365</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>133.3192428966927</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>155.6849734332772</v>
+        <v>194.5731143188404</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>127.7015846257694</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>119.2650087290526</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>65.20375367702263</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>91.65444748066085</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>88.18128947036199</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>654162.247442061</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>654162.2474420606</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="C2" t="n">
         <v>779989.681371069</v>
       </c>
-      <c r="C2" t="n">
-        <v>779989.6813710688</v>
-      </c>
       <c r="D2" t="n">
-        <v>779989.6813710692</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016468</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016466</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="G2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016476</v>
       </c>
       <c r="H2" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="J2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="L2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016472</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016471</v>
-      </c>
-      <c r="M2" t="n">
-        <v>742955.2135016473</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016472</v>
       </c>
       <c r="O2" t="n">
         <v>742955.2135016469</v>
       </c>
       <c r="P2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>8.986319244286277e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26429,10 +26429,10 @@
         <v>29303.54555230233</v>
       </c>
       <c r="F4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="G4" t="n">
-        <v>29303.54555230227</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="H4" t="n">
         <v>29303.54555230233</v>
@@ -26456,7 +26456,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="O4" t="n">
-        <v>29303.54555230234</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="P4" t="n">
         <v>29303.54555230233</v>
@@ -26481,13 +26481,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-67328.05322871104</v>
+        <v>-67328.05322871092</v>
       </c>
       <c r="C6" t="n">
-        <v>522639.8259858332</v>
+        <v>522639.8259858334</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858335</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="E6" t="n">
-        <v>96504.30552373166</v>
+        <v>95529.71426401025</v>
       </c>
       <c r="F6" t="n">
-        <v>621664.3420006268</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="G6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409069</v>
       </c>
       <c r="H6" t="n">
-        <v>621664.3420006288</v>
+        <v>620689.7507409066</v>
       </c>
       <c r="I6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="J6" t="n">
-        <v>445241.1228080355</v>
+        <v>444266.5315483139</v>
       </c>
       <c r="K6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="L6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
       <c r="M6" t="n">
-        <v>486863.3267667912</v>
+        <v>485888.7355070694</v>
       </c>
       <c r="N6" t="n">
-        <v>621664.3420006284</v>
+        <v>620689.7507409065</v>
       </c>
       <c r="O6" t="n">
-        <v>621664.3420006279</v>
+        <v>620689.7507409062</v>
       </c>
       <c r="P6" t="n">
-        <v>621664.3420006281</v>
+        <v>620689.7507409067</v>
       </c>
     </row>
   </sheetData>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541014</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541014</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>22.73775959532924</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>149.3717225072774</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>64.16285195963718</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>19.89873727992847</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>276.4195717509541</v>
       </c>
       <c r="I5" t="n">
-        <v>65.11226850790433</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,10 +27672,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27782,22 +27782,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>107.5829646831825</v>
+        <v>6.348961225150362</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>213.364437637383</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,13 +27909,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>190.7623767421588</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>21.61106031097935</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>14.59587156758289</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443621</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.1875530044495</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961208</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041494</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304447</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565527</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927195</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540894</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946999</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647501</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810466</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354105</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127073</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215736</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622986</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.812084735899</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724852</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813469</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855532</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458554</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677469</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361499</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081166</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298636</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196127</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263754</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065635</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469075</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733768</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336904</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892255</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351826</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443621</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.1875530044495</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961208</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041494</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304447</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565527</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927195</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540894</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946999</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647501</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446481</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810466</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562946</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354896</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354105</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386728</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127073</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215736</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622986</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.812084735899</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724852</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813469</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855532</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458554</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.994806871096</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677469</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361499</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680333</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081166</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298636</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822385</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557937</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196127</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171323</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263754</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065635</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469075</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733768</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336904</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892255</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351826</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,7 +35418,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>660.1896773843231</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,13 +35506,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415083</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303335</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081127</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.606025510913</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502053</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349307</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953157</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005182</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.098050259484</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504669</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980135</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>410.00982725117</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315252</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507444</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056039</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.383600611801</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415083</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303335</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109079</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081127</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.154607095148</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.606025510913</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502053</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349307</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953157</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005182</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560248</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504669</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980135</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411088</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523276</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209236</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686881</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556569</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299108</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799289</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789729</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056039</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206032</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.383600611801</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187493</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>451.7807101798181</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>301.507798211079</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,25 +37390,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>526.9295015768312</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37800,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>420.3639292382666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_4_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3890942.384397609</v>
+        <v>3895881.647246643</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>129.1935566495323</v>
       </c>
       <c r="U2" t="n">
-        <v>228.4864079129601</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>189.9700882952551</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>47.50320101340306</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>160.9608410339006</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>206.0978190620145</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>60.46179076613138</v>
       </c>
       <c r="U8" t="n">
-        <v>60.46179076613048</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690844</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.52687838733143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,19 +1818,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>130.3329354106952</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065119</v>
+        <v>50.58367861819313</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>60.54139430664235</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.3808996750722</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>92.39041249234444</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
-        <v>57.5645290049876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>88.86494278824905</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.64881963848354</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3957,13 +3957,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>54.77951516590833</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4360,22 +4360,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2566.650548947988</v>
       </c>
       <c r="U2" t="n">
-        <v>2466.35473959099</v>
+        <v>2312.888763586079</v>
       </c>
       <c r="V2" t="n">
-        <v>2135.291852247419</v>
+        <v>1981.825876242508</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>1629.057220972394</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1255.591462711315</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>865.4521307355028</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641985</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4485,10 +4485,10 @@
         <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1639.851790143457</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C5" t="n">
-        <v>1270.889273203046</v>
+        <v>670.7412687473964</v>
       </c>
       <c r="D5" t="n">
-        <v>912.6235745962952</v>
+        <v>670.7412687473964</v>
       </c>
       <c r="E5" t="n">
-        <v>526.8353219980509</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>115.8494172084433</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>101.9260131470342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036444</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674651</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404537</v>
+        <v>2189.908715988821</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143457</v>
+        <v>1816.442957727741</v>
       </c>
       <c r="Y5" t="n">
-        <v>1639.851790143457</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="6">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D7" t="n">
-        <v>409.0761618661916</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="E7" t="n">
-        <v>409.0761618661916</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>262.1862143682812</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="8">
@@ -4786,55 +4786,55 @@
         <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097701</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097701</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
         <v>2636.076575092838</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4901,7 +4901,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511404</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.4553696737762</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5020,10 +5020,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5068,22 +5068,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5278,16 +5278,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5314,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>1167.346830765682</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>877.929660728721</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>634.0455001582217</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646857</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P18" t="n">
         <v>2317.834075963124</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5819,13 +5819,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
@@ -5834,19 +5834,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
         <v>2317.834075963124</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1447.821645691041</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.693006904599</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>904.0085186987125</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>904.0085186987125</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>676.0189678006951</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>676.0189678006951</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636253</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P24" t="n">
         <v>2317.834075963124</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247867</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>675.0071030383449</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>420.322614832458</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>420.322614832458</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X25" t="n">
-        <v>420.322614832458</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>420.322614832458</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,25 +6238,25 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643586</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6442,46 +6442,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>265.3924131404652</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6925,7 +6925,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7128,19 +7128,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822463</v>
@@ -7174,13 +7174,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7308,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,7 +7414,7 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>238.6999855034732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>238.6999855034732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>675.0071030383442</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>385.5899330013836</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>385.5899330013836</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,25 +7651,25 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>898.5039869983193</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>729.5678040704124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>729.5678040704124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983193</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X46" t="n">
-        <v>898.5039869983193</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y46" t="n">
-        <v>898.5039869983193</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,7 +8698,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>223.6742649934481</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711646</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,19 +23706,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>121.8047079131328</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23940,10 +23940,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518774</v>
+        <v>170.9638824401961</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>105.9521741567352</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.1420986615188</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25077,22 +25077,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>133.3192428966927</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
-        <v>194.5731143188404</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>90.96703739368824</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>119.2650087290526</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>91.65444748066085</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>52.31591677926858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26082,16 +26082,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>654162.2474420608</v>
+        <v>654162.2474420607</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>654162.2474420607</v>
+        <v>654162.2474420608</v>
       </c>
     </row>
     <row r="13">
@@ -26316,46 +26316,46 @@
         <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.681371069</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="F2" t="n">
+        <v>742955.213501647</v>
+      </c>
+      <c r="G2" t="n">
         <v>742955.2135016471</v>
       </c>
-      <c r="F2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="G2" t="n">
-        <v>742955.2135016476</v>
-      </c>
       <c r="H2" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="I2" t="n">
-        <v>742955.2135016473</v>
+        <v>742955.2135016475</v>
       </c>
       <c r="J2" t="n">
         <v>742955.2135016471</v>
       </c>
       <c r="K2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016473</v>
       </c>
       <c r="L2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="M2" t="n">
+        <v>742955.2135016475</v>
+      </c>
+      <c r="N2" t="n">
         <v>742955.2135016472</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
+        <v>742955.2135016473</v>
+      </c>
+      <c r="P2" t="n">
         <v>742955.2135016472</v>
-      </c>
-      <c r="N2" t="n">
-        <v>742955.2135016471</v>
-      </c>
-      <c r="O2" t="n">
-        <v>742955.2135016469</v>
-      </c>
-      <c r="P2" t="n">
-        <v>742955.2135016473</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925927</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>29303.54555230233</v>
       </c>
       <c r="I4" t="n">
-        <v>29303.54555230232</v>
+        <v>29303.54555230233</v>
       </c>
       <c r="J4" t="n">
         <v>29303.54555230233</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26524,46 +26524,46 @@
         <v>-67328.05322871092</v>
       </c>
       <c r="C6" t="n">
-        <v>522639.8259858334</v>
+        <v>522639.8259858333</v>
       </c>
       <c r="D6" t="n">
-        <v>522639.8259858333</v>
+        <v>522639.8259858332</v>
       </c>
       <c r="E6" t="n">
-        <v>95529.71426401025</v>
+        <v>96406.84639775986</v>
       </c>
       <c r="F6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.882874656</v>
       </c>
       <c r="G6" t="n">
-        <v>620689.7507409069</v>
+        <v>621566.882874656</v>
       </c>
       <c r="H6" t="n">
-        <v>620689.7507409066</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="I6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746565</v>
       </c>
       <c r="J6" t="n">
-        <v>444266.5315483139</v>
+        <v>445143.6636820632</v>
       </c>
       <c r="K6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="L6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746564</v>
       </c>
       <c r="M6" t="n">
-        <v>485888.7355070694</v>
+        <v>486765.8676408191</v>
       </c>
       <c r="N6" t="n">
-        <v>620689.7507409065</v>
+        <v>621566.8828746561</v>
       </c>
       <c r="O6" t="n">
-        <v>620689.7507409062</v>
+        <v>621566.8828746562</v>
       </c>
       <c r="P6" t="n">
-        <v>620689.7507409067</v>
+        <v>621566.8828746562</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,10 +26977,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>87.25476370812552</v>
       </c>
       <c r="U2" t="n">
-        <v>22.73775959532924</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>191.9602817770067</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>276.4195717509541</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27788,16 +27788,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>6.348961225150362</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>18.93728639606974</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>155.9865295915264</v>
       </c>
       <c r="U8" t="n">
-        <v>190.7623767421588</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717194</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.59587156758289</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33019,10 +33019,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215733</v>
@@ -33031,7 +33031,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
@@ -33040,10 +33040,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33119,7 +33119,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33131,10 +33131,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>374.2497035813873</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>526.9295015768305</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,25 +36679,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36761,7 +36761,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,16 +37782,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O41" t="n">
         <v>713.1546070951472</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
